--- a/venn-diam.xlsx
+++ b/venn-diam.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowang/Dropbox/2017 Fall/amicus brief/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowang/Documents/Amicus-Brief/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="3880" windowWidth="24960" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="24960" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>GENERAL COALITIONAL BEHAVIOR</t>
   </si>
@@ -67,6 +67,9 @@
   <si>
     <t>black, latino and asian file separately</t>
   </si>
+  <si>
+    <t>Note: the numbers in this venn diagram represent the briefs in the concurrance cases. There're total 75 separate briefs out of the 26 concurrance cases.</t>
+  </si>
 </sst>
 </file>
 
@@ -101,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,6 +1092,13 @@
     <dgm:pt modelId="{66A83EF3-61C8-3641-892A-4462E88E8151}" type="pres">
       <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2" presStyleLbl="vennNode1" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" type="pres">
       <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -1096,10 +1109,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" type="pres">
       <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3" presStyleLbl="vennNode1" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" type="pres">
       <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -1110,6 +1137,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
@@ -3960,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4058,7 +4092,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C34:I35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/venn-diam.xlsx
+++ b/venn-diam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="460" windowWidth="24960" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3720,7 +3720,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-            <a:t>18</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>

--- a/venn-diam.xlsx
+++ b/venn-diam.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowang/Documents/Amicus-Brief/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Amicus-Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="636" yWindow="456" windowWidth="24960" windowHeight="14676" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="briefs-revised-11-3" sheetId="2" r:id="rId2"/>
+    <sheet name="Cases-11-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>GENERAL COALITIONAL BEHAVIOR</t>
   </si>
@@ -70,11 +72,14 @@
   <si>
     <t>Note: the numbers in this venn diagram represent the briefs in the concurrance cases. There're total 75 separate briefs out of the 26 concurrance cases.</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -119,11 +124,796 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10400"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -1064,13 +1854,6 @@
     <dgm:pt modelId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" type="pres">
       <dgm:prSet presAssocID="{C1B68422-C52F-8545-9855-EAB263A05002}" presName="circ1" presStyleLbl="vennNode1" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" type="pres">
       <dgm:prSet presAssocID="{C1B68422-C52F-8545-9855-EAB263A05002}" presName="circ1Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -1081,24 +1864,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{66A83EF3-61C8-3641-892A-4462E88E8151}" type="pres">
       <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2" presStyleLbl="vennNode1" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" type="pres">
       <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -1109,24 +1878,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" type="pres">
       <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3" presStyleLbl="vennNode1" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" type="pres">
       <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -1137,6 +1892,77 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{0DA0F416-E68F-0349-BBED-976797C34919}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" srcOrd="2" destOrd="0" parTransId="{820C7CE4-43EE-4140-B699-30DF17394DAC}" sibTransId="{D9118ED6-6D59-D14B-9ED0-809205AFCF53}"/>
+    <dgm:cxn modelId="{B4C23121-7708-3548-B77A-FE1B022CC927}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{99771042-F332-B841-9D4B-7E1D6F91F8F2}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{6906A245-0224-8942-BAE1-0769DE20EE88}" type="presOf" srcId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" destId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{434B969A-8C39-1648-919D-A1A0E59CC279}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{C1B68422-C52F-8545-9855-EAB263A05002}" srcOrd="0" destOrd="0" parTransId="{153C8609-1B84-1746-885A-22393F7CB511}" sibTransId="{D502E335-3C97-2149-BF37-30DF34683A59}"/>
+    <dgm:cxn modelId="{302F7EA9-60CA-8049-A97B-82BC24F89208}" type="presOf" srcId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" destId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{3B1E53BD-6A7D-F94A-9BE9-4569584DBE6D}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" srcOrd="1" destOrd="0" parTransId="{D0F23BF8-0DF7-0848-BF3A-67C2A7373017}" sibTransId="{B46A88CE-7CAB-CA42-8A20-6250C2377061}"/>
+    <dgm:cxn modelId="{0EE093C9-DAD0-5A48-8353-6678FADE8B66}" type="presOf" srcId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" destId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{E52F8AD0-EA48-E845-AE03-38F4202B3F64}" type="presOf" srcId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" destId="{66A83EF3-61C8-3641-892A-4462E88E8151}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{2C8349DB-4109-2043-97FB-B767C7B9E9E3}" type="presOf" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{E0132CFA-2001-9B43-A71A-0C4C160F28B6}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{8D703A38-BDD7-C445-AAB1-004E035C3A3E}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{DD43D216-7F47-C545-B039-EBD65F156E3F}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{66A83EF3-61C8-3641-892A-4462E88E8151}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{DA333715-A96B-1440-89FC-71A02E92D6D5}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{2A62E130-7F0B-124A-A00B-182D618A5DA3}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{28753C94-3ABD-FD4C-A6C9-D908743B0C37}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/venn1" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>latin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>o</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="4000"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{820C7CE4-43EE-4140-B699-30DF17394DAC}" type="parTrans" cxnId="{0DA0F416-E68F-0349-BBED-976797C34919}">
+      <dgm:prSet/>
+      <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1145,18 +1971,167 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{D9118ED6-6D59-D14B-9ED0-809205AFCF53}" type="sibTrans" cxnId="{0DA0F416-E68F-0349-BBED-976797C34919}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F45D6990-A728-274C-8757-BD3D42D16A8A}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>asian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B46A88CE-7CAB-CA42-8A20-6250C2377061}" type="sibTrans" cxnId="{3B1E53BD-6A7D-F94A-9BE9-4569584DBE6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D0F23BF8-0DF7-0848-BF3A-67C2A7373017}" type="parTrans" cxnId="{3B1E53BD-6A7D-F94A-9BE9-4569584DBE6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C1B68422-C52F-8545-9855-EAB263A05002}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>black</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D502E335-3C97-2149-BF37-30DF34683A59}" type="sibTrans" cxnId="{434B969A-8C39-1648-919D-A1A0E59CC279}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{153C8609-1B84-1746-885A-22393F7CB511}" type="parTrans" cxnId="{434B969A-8C39-1648-919D-A1A0E59CC279}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" type="pres">
+      <dgm:prSet presAssocID="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" presName="compositeShape" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="7"/>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" type="pres">
+      <dgm:prSet presAssocID="{C1B68422-C52F-8545-9855-EAB263A05002}" presName="circ1" presStyleLbl="vennNode1" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" type="pres">
+      <dgm:prSet presAssocID="{C1B68422-C52F-8545-9855-EAB263A05002}" presName="circ1Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66A83EF3-61C8-3641-892A-4462E88E8151}" type="pres">
+      <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2" presStyleLbl="vennNode1" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" type="pres">
+      <dgm:prSet presAssocID="{F45D6990-A728-274C-8757-BD3D42D16A8A}" presName="circ2Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" type="pres">
+      <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3" presStyleLbl="vennNode1" presStyleIdx="2" presStyleCnt="3" custLinFactNeighborX="-1750" custLinFactNeighborY="4374"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" type="pres">
+      <dgm:prSet presAssocID="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" presName="circ3Tx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{0DA0F416-E68F-0349-BBED-976797C34919}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" srcOrd="2" destOrd="0" parTransId="{820C7CE4-43EE-4140-B699-30DF17394DAC}" sibTransId="{D9118ED6-6D59-D14B-9ED0-809205AFCF53}"/>
+    <dgm:cxn modelId="{B4C23121-7708-3548-B77A-FE1B022CC927}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{99771042-F332-B841-9D4B-7E1D6F91F8F2}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{6906A245-0224-8942-BAE1-0769DE20EE88}" type="presOf" srcId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" destId="{EE63F017-3CF3-0B47-8403-5582DCBBB0C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
-    <dgm:cxn modelId="{B4C23121-7708-3548-B77A-FE1B022CC927}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
-    <dgm:cxn modelId="{2C8349DB-4109-2043-97FB-B767C7B9E9E3}" type="presOf" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{434B969A-8C39-1648-919D-A1A0E59CC279}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{C1B68422-C52F-8545-9855-EAB263A05002}" srcOrd="0" destOrd="0" parTransId="{153C8609-1B84-1746-885A-22393F7CB511}" sibTransId="{D502E335-3C97-2149-BF37-30DF34683A59}"/>
-    <dgm:cxn modelId="{0EE093C9-DAD0-5A48-8353-6678FADE8B66}" type="presOf" srcId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" destId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
-    <dgm:cxn modelId="{0DA0F416-E68F-0349-BBED-976797C34919}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" srcOrd="2" destOrd="0" parTransId="{820C7CE4-43EE-4140-B699-30DF17394DAC}" sibTransId="{D9118ED6-6D59-D14B-9ED0-809205AFCF53}"/>
-    <dgm:cxn modelId="{99771042-F332-B841-9D4B-7E1D6F91F8F2}" type="presOf" srcId="{C1B68422-C52F-8545-9855-EAB263A05002}" destId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{302F7EA9-60CA-8049-A97B-82BC24F89208}" type="presOf" srcId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" destId="{FA64DBBF-D31C-5A4F-860C-CE8FEFF238C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{3B1E53BD-6A7D-F94A-9BE9-4569584DBE6D}" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" srcOrd="1" destOrd="0" parTransId="{D0F23BF8-0DF7-0848-BF3A-67C2A7373017}" sibTransId="{B46A88CE-7CAB-CA42-8A20-6250C2377061}"/>
+    <dgm:cxn modelId="{0EE093C9-DAD0-5A48-8353-6678FADE8B66}" type="presOf" srcId="{94C00AAA-AC00-814B-A32F-D987CE4B794D}" destId="{5C63A745-C20D-9145-BEB0-322090B88B3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{E52F8AD0-EA48-E845-AE03-38F4202B3F64}" type="presOf" srcId="{F45D6990-A728-274C-8757-BD3D42D16A8A}" destId="{66A83EF3-61C8-3641-892A-4462E88E8151}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
+    <dgm:cxn modelId="{2C8349DB-4109-2043-97FB-B767C7B9E9E3}" type="presOf" srcId="{253BCBF1-504C-3645-BED9-1D9F23CBAC54}" destId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{E0132CFA-2001-9B43-A71A-0C4C160F28B6}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{8D703A38-BDD7-C445-AAB1-004E035C3A3E}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{451824A0-FECD-5F43-A37E-36F81144EA9B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
     <dgm:cxn modelId="{DD43D216-7F47-C545-B039-EBD65F156E3F}" type="presParOf" srcId="{6EA69150-7C16-F24B-A93B-AB5E79E1D5C7}" destId="{66A83EF3-61C8-3641-892A-4462E88E8151}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/venn1"/>
@@ -1189,8 +2164,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1681907" y="129600"/>
-          <a:ext cx="2681384" cy="2681384"/>
+          <a:off x="1785690" y="126320"/>
+          <a:ext cx="2613519" cy="2613519"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1261,7 +2236,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1271,6 +2246,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="4000" kern="1200"/>
@@ -1278,7 +2254,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1288,6 +2264,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
@@ -1297,8 +2274,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2039425" y="598842"/>
-        <a:ext cx="1966348" cy="1206622"/>
+        <a:off x="2134159" y="583686"/>
+        <a:ext cx="1916581" cy="1176083"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{66A83EF3-61C8-3641-892A-4462E88E8151}">
@@ -1308,8 +2285,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2649440" y="1805465"/>
-          <a:ext cx="2681384" cy="2681384"/>
+          <a:off x="2728735" y="1759770"/>
+          <a:ext cx="2613519" cy="2613519"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1380,7 +2357,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1390,6 +2367,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="4000" kern="1200"/>
@@ -1397,7 +2375,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1407,6 +2385,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
@@ -1416,8 +2395,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3469497" y="2498156"/>
-        <a:ext cx="1608830" cy="1474761"/>
+        <a:off x="3528036" y="2434929"/>
+        <a:ext cx="1568111" cy="1437435"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C63A745-C20D-9145-BEB0-322090B88B3E}">
@@ -1427,8 +2406,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="714375" y="1805465"/>
-          <a:ext cx="2681384" cy="2681384"/>
+          <a:off x="842644" y="1759770"/>
+          <a:ext cx="2613519" cy="2613519"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1499,7 +2478,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1509,11 +2488,12 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="en-US" sz="4000" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1523,6 +2503,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="4000" kern="1200"/>
@@ -1534,7 +2515,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1544,6 +2525,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
@@ -1552,7 +2534,7 @@
           <a:endParaRPr lang="en-US" sz="2400" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1562,13 +2544,423 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="en-US" sz="4000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="966872" y="2498156"/>
-        <a:ext cx="1608830" cy="1474761"/>
+        <a:off x="1088751" y="2434929"/>
+        <a:ext cx="1568111" cy="1437435"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{87A8C240-CC95-1D4D-8085-DC9016B5A904}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1785690" y="126320"/>
+          <a:ext cx="2613519" cy="2613519"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" kern="1200"/>
+            <a:t>black</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2134159" y="583686"/>
+        <a:ext cx="1916581" cy="1176083"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{66A83EF3-61C8-3641-892A-4462E88E8151}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2728735" y="1759770"/>
+          <a:ext cx="2613519" cy="2613519"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="5197846"/>
+                <a:satOff val="-23984"/>
+                <a:lumOff val="883"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="5197846"/>
+                <a:satOff val="-23984"/>
+                <a:lumOff val="883"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="5197846"/>
+                <a:satOff val="-23984"/>
+                <a:lumOff val="883"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" kern="1200"/>
+            <a:t>asian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3528036" y="2434929"/>
+        <a:ext cx="1568111" cy="1437435"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5C63A745-C20D-9145-BEB0-322090B88B3E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="796908" y="1874085"/>
+          <a:ext cx="2613519" cy="2613519"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="10395692"/>
+                <a:satOff val="-47968"/>
+                <a:lumOff val="1765"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="10395692"/>
+                <a:satOff val="-47968"/>
+                <a:lumOff val="1765"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+                <a:hueOff val="10395692"/>
+                <a:satOff val="-47968"/>
+                <a:lumOff val="1765"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="4000" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" kern="1200"/>
+            <a:t>latin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000" kern="1200"/>
+            <a:t>o</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" kern="1200"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1778000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="4000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1043014" y="2549244"/>
+        <a:ext cx="1568111" cy="1437435"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -1576,6 +2968,881 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/venn1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="relationship" pri="28000"/>
+    <dgm:cat type="convert" pri="19000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="compositeShape">
+    <dgm:varLst>
+      <dgm:chMax val="7"/>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name2" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.792"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name3" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name4" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.4"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name6" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.285"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="equ" val="7">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.359"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name8">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.359"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name9">
+      <dgm:if name="Name10" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1TxSh" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1TxSh" refType="h" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="circ1TxSh" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="circ1TxSh" refType="h"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name11" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.3"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="h" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.555"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.99456"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.1"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx" refType="h" fact="0.12"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.32"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.76"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.7"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="h" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.555"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.99456"/>
+          <dgm:constr type="l" for="ch" forName="circ2Tx" refType="w" fact="0.58"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.12"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.32"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.76"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name12" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="w" fact="0.25"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.6"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.6"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.28"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx" refType="h" fact="0.055"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.44"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.27"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.7165"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="w" fact="0.625"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.6"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.6"/>
+          <dgm:constr type="l" for="ch" forName="circ2Tx" refType="w" fact="0.6"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.48"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.36"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.33"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ3" refType="w" fact="0.2835"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ3" refType="w" fact="0.625"/>
+          <dgm:constr type="w" for="ch" forName="circ3" refType="w" fact="0.6"/>
+          <dgm:constr type="h" for="ch" forName="circ3" refType="h" fact="0.6"/>
+          <dgm:constr type="l" for="ch" forName="circ3Tx" refType="w" fact="0.04"/>
+          <dgm:constr type="t" for="ch" forName="circ3Tx" refType="h" fact="0.48"/>
+          <dgm:constr type="w" for="ch" forName="circ3Tx" refType="w" fact="0.36"/>
+          <dgm:constr type="h" for="ch" forName="circ3Tx" refType="h" fact="0.33"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name13" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="w" fact="0.27"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.52"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.52"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.3"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx" refType="h" fact="0.08"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.4"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.165"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.73"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="w" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.52"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.52"/>
+          <dgm:constr type="r" for="ch" forName="circ2Tx" refType="w" fact="0.95"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.3"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.2"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.4"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ3" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ3" refType="w" fact="0.73"/>
+          <dgm:constr type="w" for="ch" forName="circ3" refType="w" fact="0.52"/>
+          <dgm:constr type="h" for="ch" forName="circ3" refType="h" fact="0.52"/>
+          <dgm:constr type="l" for="ch" forName="circ3Tx" refType="w" fact="0.3"/>
+          <dgm:constr type="b" for="ch" forName="circ3Tx" refType="h" fact="0.92"/>
+          <dgm:constr type="w" for="ch" forName="circ3Tx" refType="w" fact="0.4"/>
+          <dgm:constr type="h" for="ch" forName="circ3Tx" refType="h" fact="0.165"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ4" refType="w" fact="0.27"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ4" refType="h" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="circ4" refType="w" fact="0.52"/>
+          <dgm:constr type="h" for="ch" forName="circ4" refType="h" fact="0.52"/>
+          <dgm:constr type="l" for="ch" forName="circ4Tx" refType="w" fact="0.05"/>
+          <dgm:constr type="t" for="ch" forName="circ4Tx" refType="h" fact="0.3"/>
+          <dgm:constr type="w" for="ch" forName="circ4Tx" refType="w" fact="0.2"/>
+          <dgm:constr type="h" for="ch" forName="circ4Tx" refType="h" fact="0.4"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name14" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="h" fact="0.46"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.25"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.35"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.355"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.29"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.235"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.5951"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="h" fact="0.5567"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.25"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.35"/>
+          <dgm:constr type="l" for="ch" forName="circ2Tx" refType="w" fact="0.74"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.31"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.255"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ3" refType="w" fact="0.5588"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ3" refType="h" fact="0.7133"/>
+          <dgm:constr type="w" for="ch" forName="circ3" refType="w" fact="0.25"/>
+          <dgm:constr type="h" for="ch" forName="circ3" refType="h" fact="0.35"/>
+          <dgm:constr type="l" for="ch" forName="circ3Tx" refType="w" fact="0.7"/>
+          <dgm:constr type="t" for="ch" forName="circ3Tx" refType="h" fact="0.745"/>
+          <dgm:constr type="w" for="ch" forName="circ3Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ3Tx" refType="h" fact="0.255"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ4" refType="w" fact="0.4412"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ4" refType="h" fact="0.7133"/>
+          <dgm:constr type="w" for="ch" forName="circ4" refType="w" fact="0.25"/>
+          <dgm:constr type="h" for="ch" forName="circ4" refType="h" fact="0.35"/>
+          <dgm:constr type="l" for="ch" forName="circ4Tx" refType="w" fact="0.04"/>
+          <dgm:constr type="t" for="ch" forName="circ4Tx" refType="h" fact="0.745"/>
+          <dgm:constr type="w" for="ch" forName="circ4Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ4Tx" refType="h" fact="0.255"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ5" refType="w" fact="0.4049"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ5" refType="h" fact="0.5567"/>
+          <dgm:constr type="w" for="ch" forName="circ5" refType="w" fact="0.25"/>
+          <dgm:constr type="h" for="ch" forName="circ5" refType="h" fact="0.35"/>
+          <dgm:constr type="l" for="ch" forName="circ5Tx"/>
+          <dgm:constr type="t" for="ch" forName="circ5Tx" refType="h" fact="0.31"/>
+          <dgm:constr type="w" for="ch" forName="circ5Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ5Tx" refType="h" fact="0.255"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name15" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="h" fact="0.3844"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.35"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.3"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.21"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.5779"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="h" fact="0.4422"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ2Tx" refType="w" fact="0.7157"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.2"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.2843"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.23"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ3" refType="w" fact="0.5779"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ3" refType="h" fact="0.5578"/>
+          <dgm:constr type="w" for="ch" forName="circ3" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ3" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ3Tx" refType="w" fact="0.7157"/>
+          <dgm:constr type="t" for="ch" forName="circ3Tx" refType="h" fact="0.543"/>
+          <dgm:constr type="w" for="ch" forName="circ3Tx" refType="w" fact="0.2843"/>
+          <dgm:constr type="h" for="ch" forName="circ3Tx" refType="h" fact="0.257"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ4" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ4" refType="h" fact="0.6157"/>
+          <dgm:constr type="w" for="ch" forName="circ4" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ4" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ4Tx" refType="w" fact="0.35"/>
+          <dgm:constr type="t" for="ch" forName="circ4Tx" refType="h" fact="0.79"/>
+          <dgm:constr type="w" for="ch" forName="circ4Tx" refType="w" fact="0.3"/>
+          <dgm:constr type="h" for="ch" forName="circ4Tx" refType="h" fact="0.21"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ5" refType="w" fact="0.4221"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ5" refType="h" fact="0.5578"/>
+          <dgm:constr type="w" for="ch" forName="circ5" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ5" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ5Tx" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="circ5Tx" refType="h" fact="0.543"/>
+          <dgm:constr type="w" for="ch" forName="circ5Tx" refType="w" fact="0.2843"/>
+          <dgm:constr type="h" for="ch" forName="circ5Tx" refType="h" fact="0.257"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ6" refType="w" fact="0.4221"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ6" refType="h" fact="0.4422"/>
+          <dgm:constr type="w" for="ch" forName="circ6" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ6" refType="h" fact="0.3084"/>
+          <dgm:constr type="l" for="ch" forName="circ6Tx" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="circ6Tx" refType="h" fact="0.2"/>
+          <dgm:constr type="w" for="ch" forName="circ6Tx" refType="w" fact="0.2843"/>
+          <dgm:constr type="h" for="ch" forName="circ6Tx" refType="h" fact="0.257"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:else name="Name16">
+        <dgm:constrLst>
+          <dgm:constr type="ctrX" for="ch" forName="circ1" refType="w" fact="0.5"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ1" refType="h" fact="0.4177"/>
+          <dgm:constr type="w" for="ch" forName="circ1" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ1" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ1Tx" refType="w" fact="0.3625"/>
+          <dgm:constr type="t" for="ch" forName="circ1Tx"/>
+          <dgm:constr type="w" for="ch" forName="circ1Tx" refType="w" fact="0.275"/>
+          <dgm:constr type="h" for="ch" forName="circ1Tx" refType="h" fact="0.2"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ2" refType="w" fact="0.5704"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ2" refType="h" fact="0.4637"/>
+          <dgm:constr type="w" for="ch" forName="circ2" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ2" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ2Tx" refType="w" fact="0.72"/>
+          <dgm:constr type="t" for="ch" forName="circ2Tx" refType="h" fact="0.19"/>
+          <dgm:constr type="w" for="ch" forName="circ2Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ2Tx" refType="h" fact="0.22"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ3" refType="w" fact="0.5877"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ3" refType="h" fact="0.5672"/>
+          <dgm:constr type="w" for="ch" forName="circ3" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ3" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ3Tx" refType="w" fact="0.745"/>
+          <dgm:constr type="t" for="ch" forName="circ3Tx" refType="h" fact="0.47"/>
+          <dgm:constr type="w" for="ch" forName="circ3Tx" refType="w" fact="0.255"/>
+          <dgm:constr type="h" for="ch" forName="circ3Tx" refType="h" fact="0.235"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ4" refType="w" fact="0.539"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ4" refType="h" fact="0.6502"/>
+          <dgm:constr type="w" for="ch" forName="circ4" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ4" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ4Tx" refType="w" fact="0.635"/>
+          <dgm:constr type="t" for="ch" forName="circ4Tx" refType="h" fact="0.785"/>
+          <dgm:constr type="w" for="ch" forName="circ4Tx" refType="w" fact="0.275"/>
+          <dgm:constr type="h" for="ch" forName="circ4Tx" refType="h" fact="0.215"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ5" refType="w" fact="0.461"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ5" refType="h" fact="0.6502"/>
+          <dgm:constr type="w" for="ch" forName="circ5" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ5" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ5Tx" refType="w" fact="0.09"/>
+          <dgm:constr type="t" for="ch" forName="circ5Tx" refType="h" fact="0.785"/>
+          <dgm:constr type="w" for="ch" forName="circ5Tx" refType="w" fact="0.275"/>
+          <dgm:constr type="h" for="ch" forName="circ5Tx" refType="h" fact="0.215"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ6" refType="w" fact="0.4123"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ6" refType="h" fact="0.5672"/>
+          <dgm:constr type="w" for="ch" forName="circ6" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ6" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ6Tx"/>
+          <dgm:constr type="t" for="ch" forName="circ6Tx" refType="h" fact="0.47"/>
+          <dgm:constr type="w" for="ch" forName="circ6Tx" refType="w" fact="0.255"/>
+          <dgm:constr type="h" for="ch" forName="circ6Tx" refType="h" fact="0.235"/>
+          <dgm:constr type="ctrX" for="ch" forName="circ7" refType="w" fact="0.4296"/>
+          <dgm:constr type="ctrY" for="ch" forName="circ7" refType="h" fact="0.4637"/>
+          <dgm:constr type="w" for="ch" forName="circ7" refType="w" fact="0.24"/>
+          <dgm:constr type="h" for="ch" forName="circ7" refType="h" fact="0.3262"/>
+          <dgm:constr type="l" for="ch" forName="circ7Tx" refType="w" fact="0.02"/>
+          <dgm:constr type="t" for="ch" forName="circ7Tx" refType="h" fact="0.19"/>
+          <dgm:constr type="w" for="ch" forName="circ7Tx" refType="w" fact="0.26"/>
+          <dgm:constr type="h" for="ch" forName="circ7Tx" refType="h" fact="0.22"/>
+          <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name17" axis="ch" ptType="node" cnt="1">
+      <dgm:choose name="Name18">
+        <dgm:if name="Name19" axis="root ch" ptType="all node" func="cnt" op="equ" val="1">
+          <dgm:layoutNode name="circ1TxSh" styleLbl="vennNode1">
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorHorzCh" val="ctr"/>
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name20">
+              <dgm:if name="Name21" func="var" arg="dir" op="equ" val="norm">
+                <dgm:choose name="Name22">
+                  <dgm:if name="Name23" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                    <dgm:presOf axis="desOrSelf" ptType="node"/>
+                  </dgm:if>
+                  <dgm:else name="Name24">
+                    <dgm:presOf/>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:else name="Name25">
+                <dgm:choose name="Name26">
+                  <dgm:if name="Name27" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                    <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+                  </dgm:if>
+                  <dgm:else name="Name28">
+                    <dgm:presOf axis="desOrSelf" ptType="node"/>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+              <dgm:constr type="primFontSz" val="65"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:if>
+        <dgm:else name="Name29">
+          <dgm:layoutNode name="circ1" styleLbl="vennNode1">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name30">
+              <dgm:if name="Name31" func="var" arg="dir" op="equ" val="norm">
+                <dgm:choose name="Name32">
+                  <dgm:if name="Name33" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                    <dgm:presOf axis="desOrSelf" ptType="node"/>
+                  </dgm:if>
+                  <dgm:else name="Name34">
+                    <dgm:presOf/>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:else name="Name35">
+                <dgm:choose name="Name36">
+                  <dgm:if name="Name37" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                    <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+                  </dgm:if>
+                  <dgm:else name="Name38">
+                    <dgm:choose name="Name39">
+                      <dgm:if name="Name40" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                        <dgm:presOf axis="desOrSelf" ptType="node"/>
+                      </dgm:if>
+                      <dgm:else name="Name41">
+                        <dgm:presOf/>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="circ1Tx" styleLbl="revTx">
+            <dgm:varLst>
+              <dgm:chMax val="0"/>
+              <dgm:chPref val="0"/>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorHorzCh" val="ctr"/>
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name42">
+              <dgm:if name="Name43" func="var" arg="dir" op="equ" val="norm">
+                <dgm:presOf axis="desOrSelf" ptType="node"/>
+              </dgm:if>
+              <dgm:else name="Name44">
+                <dgm:choose name="Name45">
+                  <dgm:if name="Name46" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                    <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+                  </dgm:if>
+                  <dgm:else name="Name47">
+                    <dgm:presOf axis="desOrSelf" ptType="node"/>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+              <dgm:constr type="primFontSz" val="65"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:else>
+      </dgm:choose>
+    </dgm:forEach>
+    <dgm:forEach name="Name48" axis="ch" ptType="node" st="2" cnt="1">
+      <dgm:layoutNode name="circ2" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name49">
+          <dgm:if name="Name50" func="var" arg="dir" op="equ" val="norm">
+            <dgm:choose name="Name51">
+              <dgm:if name="Name52" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                <dgm:presOf axis="desOrSelf" ptType="node"/>
+              </dgm:if>
+              <dgm:else name="Name53">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:if>
+          <dgm:else name="Name54">
+            <dgm:choose name="Name55">
+              <dgm:if name="Name56" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 1 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name57" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name58" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 4 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name59">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ2Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name60">
+          <dgm:if name="Name61" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name62">
+            <dgm:choose name="Name63">
+              <dgm:if name="Name64" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 1 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name65" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name66" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 4 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name67" axis="root ch" ptType="all node" func="cnt" op="equ" val="5">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 5 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name68" axis="root ch" ptType="all node" func="cnt" op="equ" val="6">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 6 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name69">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 7 1" cnt="1 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+    <dgm:forEach name="Name70" axis="ch" ptType="node" st="3" cnt="1">
+      <dgm:layoutNode name="circ3" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name71">
+          <dgm:if name="Name72" func="var" arg="dir" op="equ" val="norm">
+            <dgm:choose name="Name73">
+              <dgm:if name="Name74" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                <dgm:presOf axis="desOrSelf" ptType="node"/>
+              </dgm:if>
+              <dgm:else name="Name75">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:if>
+          <dgm:else name="Name76">
+            <dgm:choose name="Name77">
+              <dgm:if name="Name78" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name79" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name80">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ3Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name81">
+          <dgm:if name="Name82" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name83">
+            <dgm:choose name="Name84">
+              <dgm:if name="Name85" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name86" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name87" axis="root ch" ptType="all node" func="cnt" op="equ" val="5">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 4 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name88" axis="root ch" ptType="all node" func="cnt" op="equ" val="6">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 5 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name89">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 6 1" cnt="1 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+    <dgm:forEach name="Name90" axis="ch" ptType="node" st="4" cnt="1">
+      <dgm:layoutNode name="circ4" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name91">
+          <dgm:if name="Name92" func="var" arg="dir" op="equ" val="norm">
+            <dgm:choose name="Name93">
+              <dgm:if name="Name94" axis="root ch" ptType="all node" func="cnt" op="lte" val="4">
+                <dgm:presOf axis="desOrSelf" ptType="node"/>
+              </dgm:if>
+              <dgm:else name="Name95">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:if>
+          <dgm:else name="Name96">
+            <dgm:choose name="Name97">
+              <dgm:if name="Name98" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name99">
+                <dgm:presOf/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ4Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name100">
+          <dgm:if name="Name101" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name102">
+            <dgm:choose name="Name103">
+              <dgm:if name="Name104" axis="root ch" ptType="all node" func="cnt" op="equ" val="4">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name105" axis="root ch" ptType="all node" func="cnt" op="equ" val="5">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name106" axis="root ch" ptType="all node" func="cnt" op="equ" val="6">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 4 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name107">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 5 1" cnt="1 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+    <dgm:forEach name="Name108" axis="ch" ptType="node" st="5" cnt="1">
+      <dgm:layoutNode name="circ5" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ5Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name109">
+          <dgm:if name="Name110" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name111">
+            <dgm:choose name="Name112">
+              <dgm:if name="Name113" axis="root ch" ptType="all node" func="cnt" op="equ" val="5">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name114" axis="root ch" ptType="all node" func="cnt" op="equ" val="6">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name115">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 4 1" cnt="1 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+    <dgm:forEach name="Name116" axis="ch" ptType="node" st="6" cnt="1">
+      <dgm:layoutNode name="circ6" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ6Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name117">
+          <dgm:if name="Name118" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name119">
+            <dgm:choose name="Name120">
+              <dgm:if name="Name121" axis="root ch" ptType="all node" func="cnt" op="equ" val="6">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name122">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="1 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+    <dgm:forEach name="Name123" axis="ch" ptType="node" st="7" cnt="1">
+      <dgm:layoutNode name="circ7" styleLbl="vennNode1">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="circ7Tx" styleLbl="revTx">
+        <dgm:varLst>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          <dgm:param type="txAnchorVertCh" val="mid"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name124">
+          <dgm:if name="Name125" func="var" arg="dir" op="equ" val="norm">
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+          </dgm:if>
+          <dgm:else name="Name126">
+            <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="1 1 0"/>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:constrLst>
+          <dgm:constr type="tMarg"/>
+          <dgm:constr type="bMarg"/>
+          <dgm:constr type="lMarg"/>
+          <dgm:constr type="rMarg"/>
+          <dgm:constr type="primFontSz" val="65"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/venn1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -3484,6 +5751,1040 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10400"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3501,7 +6802,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3526,7 +6833,13 @@
     <xdr:ext cx="418704" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3579,7 +6892,13 @@
     <xdr:ext cx="301686" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3632,7 +6951,13 @@
     <xdr:ext cx="301686" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3685,7 +7010,13 @@
     <xdr:ext cx="418704" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3723,6 +7054,279 @@
             <a:t>13</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691851DF-1EFB-443B-98F2-61850A06D4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418704" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7117B7B3-25D3-46EE-92BD-54CC980D900F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="4617720"/>
+          <a:ext cx="418704" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406055FD-0993-48FD-BFBD-630AA11CF145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="4602480"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F621D9C-1FDE-4761-9660-769AE90EC31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9349740" y="4907280"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418704" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78C70ED-EEA3-48F2-BA8C-1E823ABEC465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="5570220"/>
+          <a:ext cx="418704" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>12</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3996,18 +7600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4032,7 +7636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4043,7 +7647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4054,7 +7658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +7669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +7677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -4081,7 +7685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +7696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4103,7 +7707,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4119,4 +7723,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F37:L38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>